--- a/StructureDefinition-ext-R5-AdverseEvent.preventiveAction.xlsx
+++ b/StructureDefinition-ext-R5-AdverseEvent.preventiveAction.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `AdverseEvent.preventiveAction` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `AdverseEvent.preventiveAction` is mapped to FHIR R4 structure `AdverseEvent`, but has no target element specified.</t>
+Element `AdverseEvent.preventiveAction` is will have a context of AdverseEvent based on following the parent source element upwards and mapping to `AdverseEvent`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:AdverseEvent</t>
   </si>
   <si>
     <t>ID</t>
@@ -339,7 +339,7 @@
   </si>
   <si>
     <t>Element `AdverseEvent.preventiveAction.item[x]` is part of an existing definition because parent element `AdverseEvent.preventiveAction` requires a cross-version extension.
-Element `AdverseEvent.preventiveAction.item[x]` is mapped to FHIR R4 structure `AdverseEvent`, but has no target element specified.</t>
+Element `AdverseEvent.preventiveAction.item[x]` is will have a context of AdverseEvent based on following the parent source element upwards and mapping to `AdverseEvent`.</t>
   </si>
   <si>
     <t>Extension.extension:item.id</t>
@@ -756,7 +756,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="140.5390625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="142.359375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-AdverseEvent.preventiveAction.xlsx
+++ b/StructureDefinition-ext-R5-AdverseEvent.preventiveAction.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="129">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `AdverseEvent.preventiveAction` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `AdverseEvent.preventiveAction` is will have a context of AdverseEvent based on following the parent source element upwards and mapping to `AdverseEvent`.</t>
+Element `AdverseEvent.preventiveAction` has a context of AdverseEvent based on following the parent source element upwards and mapping to `AdverseEvent`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -339,7 +339,7 @@
   </si>
   <si>
     <t>Element `AdverseEvent.preventiveAction.item[x]` is part of an existing definition because parent element `AdverseEvent.preventiveAction` requires a cross-version extension.
-Element `AdverseEvent.preventiveAction.item[x]` is will have a context of AdverseEvent based on following the parent source element upwards and mapping to `AdverseEvent`.</t>
+Element `AdverseEvent.preventiveAction.item[x]` has a context of AdverseEvent based on following the parent source element upwards and mapping to `AdverseEvent`.</t>
   </si>
   <si>
     <t>Extension.extension:item.id</t>
@@ -384,6 +384,9 @@
   </si>
   <si>
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.preventiveAction.item</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -756,7 +759,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="142.359375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="140.5390625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1562,7 +1565,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1604,7 +1607,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1619,15 +1622,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1650,7 +1653,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1707,7 +1710,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1719,18 +1722,18 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1812,7 +1815,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>86</v>
@@ -1827,15 +1830,15 @@
         <v>77</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1858,13 +1861,13 @@
         <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1915,7 +1918,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -1927,10 +1930,10 @@
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-AdverseEvent.preventiveAction.xlsx
+++ b/StructureDefinition-ext-R5-AdverseEvent.preventiveAction.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -401,7 +401,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t>Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Immunization|0.0.1-snapshot-3|Immunization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Procedure|0.0.1-snapshot-3|Procedure|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|0.0.1-snapshot-3|Media|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicationAdministration|0.0.1-snapshot-3|MedicationAdministration|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicationRequest|0.0.1-snapshot-3|MedicationRequest|4.0.1)
+    <t>Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Immunization|Immunization|http://hl7.org/fhir/5.0/StructureDefinition/profile-Procedure|Procedure|http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|Media|http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicationAdministration|MedicationAdministration|http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicationRequest|MedicationRequest)
 CodeableConcept</t>
   </si>
   <si>

--- a/StructureDefinition-ext-R5-AdverseEvent.preventiveAction.xlsx
+++ b/StructureDefinition-ext-R5-AdverseEvent.preventiveAction.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="128">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -338,8 +338,7 @@
     <t>The action that contributed to avoiding the adverse event.</t>
   </si>
   <si>
-    <t>Element `AdverseEvent.preventiveAction.item[x]` is part of an existing definition because parent element `AdverseEvent.preventiveAction` requires a cross-version extension.
-Element `AdverseEvent.preventiveAction.item[x]` has a context of AdverseEvent based on following the parent source element upwards and mapping to `AdverseEvent`.</t>
+    <t>Element `AdverseEvent.preventiveAction.item[x]` has a context of AdverseEvent based on following the parent source element upwards and mapping to `AdverseEvent`.</t>
   </si>
   <si>
     <t>Extension.extension:item.id</t>
@@ -386,9 +385,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.preventiveAction.item</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -401,7 +397,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t>Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Immunization|Immunization|http://hl7.org/fhir/5.0/StructureDefinition/profile-Procedure|Procedure|http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|Media|http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicationAdministration|MedicationAdministration|http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicationRequest|MedicationRequest)
+    <t>Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Immunization|0.0.1-snapshot-3|Immunization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Procedure|0.0.1-snapshot-3|Procedure|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|0.0.1-snapshot-3|Media|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicationAdministration|0.0.1-snapshot-3|MedicationAdministration|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicationRequest|0.0.1-snapshot-3|MedicationRequest|4.0.1)
 CodeableConcept</t>
   </si>
   <si>
@@ -759,7 +755,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="140.5390625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="136.37109375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1565,49 +1561,49 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1622,15 +1618,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1653,7 +1649,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1710,7 +1706,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1722,18 +1718,18 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1815,7 +1811,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>86</v>
@@ -1830,15 +1826,15 @@
         <v>77</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1861,13 +1857,13 @@
         <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1918,7 +1914,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -1930,10 +1926,10 @@
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
